--- a/Case2.0.xlsx
+++ b/Case2.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -118,16 +118,100 @@
     <x:t>Value accepted for Status field.</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Valid value for required field Potential Liability </x:t>
+  </x:si>
+  <x:si>
     <x:t>Step 6</x:t>
   </x:si>
   <x:si>
+    <x:t>Input valid value in the  Potential Liability field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Potential Liability field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Assign using active assignment rules </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Assign using active assignment rules field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Assign using active assignment rules field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Engineering Req Number </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Engineering Req Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Engineering Req Number field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Description </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Description field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Description field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field SLA Violation </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  SLA Violation field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the SLA Violation field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Subject </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Subject field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Subject field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Internal Comments </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Internal Comments field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Internal Comments field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 13</x:t>
+  </x:si>
+  <x:si>
     <x:t>Click on Save button to save Case with fields</x:t>
   </x:si>
   <x:si>
     <x:t>User should be able to validate that a New Case is created</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 7</x:t>
+    <x:t>Step 14</x:t>
   </x:si>
   <x:si>
     <x:t>On the Case page, Click on 'Submit for Approval' button to Submit for Approval.</x:t>
@@ -136,7 +220,7 @@
     <x:t>Pop-up confirming to submit the record for Approval is displayed.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 8</x:t>
+    <x:t>Step 15</x:t>
   </x:si>
   <x:si>
     <x:t>Click on 'OK' button to submit the record for Approval.</x:t>
@@ -145,7 +229,7 @@
     <x:t>The record will be displayed under Approval History section with the status 'Pending'.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 9</x:t>
+    <x:t>Step 16</x:t>
   </x:si>
   <x:si>
     <x:t>If the user is navigated to the 'Choose Approver' page, he should be able to input the Next Approver.</x:t>
@@ -154,7 +238,7 @@
     <x:t>User is able to input the Next Approver.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 10</x:t>
+    <x:t>Step 17</x:t>
   </x:si>
   <x:si>
     <x:t>Click on 'Send to Next Approver' button.</x:t>
@@ -163,7 +247,7 @@
     <x:t>The record will be displayed under Approval History section with the status 'Pending' and the updated Approver Name.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 11</x:t>
+    <x:t>Step 18</x:t>
   </x:si>
   <x:si>
     <x:t>For this Approval process, if e-mail notification is configured, validate that the Approver receives an e-mail with Approve/Reject request.</x:t>
@@ -175,61 +259,43 @@
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Cancel' button to prevent submission for approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is redirected to the Case Page</x:t>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>View Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Case tab,  and select a Case </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Case Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Case name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Case Details</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_3</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Case tab,  and select a Case </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Case Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Case name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Case Details</x:t>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Case tab,  and click on existing Case to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Case Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Case is edited</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Case tab,  and click on existing Case to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Case Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Case is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_6.TestCase_1</x:t>
@@ -334,8 +400,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K44" totalsRowShown="0">
-  <x:autoFilter ref="A1:K44"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K42" totalsRowShown="0">
+  <x:autoFilter ref="A1:K42"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -641,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K44"/>
+  <x:dimension ref="A1:K42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -811,15 +877,17 @@
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -830,15 +898,17 @@
       <x:c r="B8" s="0" t="s"/>
       <x:c r="C8" s="0" t="s"/>
       <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -849,15 +919,17 @@
       <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -868,15 +940,17 @@
       <x:c r="B10" s="0" t="s"/>
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -887,15 +961,17 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -906,42 +982,38 @@
       <x:c r="B12" s="0" t="s"/>
       <x:c r="C12" s="0" t="s"/>
       <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
       <x:c r="K12" s="0" t="s"/>
     </x:row>
     <x:row r="13" spans="1:11">
-      <x:c r="A13" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s"/>
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -952,17 +1024,15 @@
       <x:c r="B14" s="0" t="s"/>
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -973,17 +1043,15 @@
       <x:c r="B15" s="0" t="s"/>
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -994,17 +1062,15 @@
       <x:c r="B16" s="0" t="s"/>
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1015,17 +1081,15 @@
       <x:c r="B17" s="0" t="s"/>
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
+      <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1038,13 +1102,13 @@
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1057,105 +1121,107 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
       <x:c r="K19" s="0" t="s"/>
     </x:row>
     <x:row r="20" spans="1:11">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
+      <x:c r="A20" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
       <x:c r="K20" s="0" t="s"/>
     </x:row>
     <x:row r="21" spans="1:11">
-      <x:c r="A21" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="A21" s="0" t="s"/>
+      <x:c r="B21" s="0" t="s"/>
+      <x:c r="C21" s="0" t="s"/>
+      <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
       <x:c r="K21" s="0" t="s"/>
     </x:row>
     <x:row r="22" spans="1:11">
-      <x:c r="A22" s="0" t="s"/>
-      <x:c r="B22" s="0" t="s"/>
-      <x:c r="C22" s="0" t="s"/>
-      <x:c r="D22" s="0" t="s"/>
+      <x:c r="A22" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
       <x:c r="K22" s="0" t="s"/>
     </x:row>
     <x:row r="23" spans="1:11">
-      <x:c r="A23" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s"/>
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1167,16 +1233,16 @@
       <x:c r="C24" s="0" t="s"/>
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1188,16 +1254,16 @@
       <x:c r="C25" s="0" t="s"/>
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
@@ -1209,16 +1275,16 @@
       <x:c r="C26" s="0" t="s"/>
       <x:c r="D26" s="0" t="s"/>
       <x:c r="E26" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
@@ -1230,16 +1296,16 @@
       <x:c r="C27" s="0" t="s"/>
       <x:c r="D27" s="0" t="s"/>
       <x:c r="E27" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
@@ -1250,15 +1316,17 @@
       <x:c r="B28" s="0" t="s"/>
       <x:c r="C28" s="0" t="s"/>
       <x:c r="D28" s="0" t="s"/>
-      <x:c r="E28" s="0" t="s"/>
+      <x:c r="E28" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
@@ -1269,15 +1337,17 @@
       <x:c r="B29" s="0" t="s"/>
       <x:c r="C29" s="0" t="s"/>
       <x:c r="D29" s="0" t="s"/>
-      <x:c r="E29" s="0" t="s"/>
+      <x:c r="E29" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
@@ -1288,15 +1358,17 @@
       <x:c r="B30" s="0" t="s"/>
       <x:c r="C30" s="0" t="s"/>
       <x:c r="D30" s="0" t="s"/>
-      <x:c r="E30" s="0" t="s"/>
+      <x:c r="E30" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
@@ -1307,15 +1379,17 @@
       <x:c r="B31" s="0" t="s"/>
       <x:c r="C31" s="0" t="s"/>
       <x:c r="D31" s="0" t="s"/>
-      <x:c r="E31" s="0" t="s"/>
+      <x:c r="E31" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1326,15 +1400,17 @@
       <x:c r="B32" s="0" t="s"/>
       <x:c r="C32" s="0" t="s"/>
       <x:c r="D32" s="0" t="s"/>
-      <x:c r="E32" s="0" t="s"/>
+      <x:c r="E32" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
@@ -1345,42 +1421,36 @@
       <x:c r="B33" s="0" t="s"/>
       <x:c r="C33" s="0" t="s"/>
       <x:c r="D33" s="0" t="s"/>
-      <x:c r="E33" s="0" t="s"/>
+      <x:c r="E33" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
       <x:c r="K33" s="0" t="s"/>
     </x:row>
     <x:row r="34" spans="1:11">
-      <x:c r="A34" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="A34" s="0" t="s"/>
+      <x:c r="B34" s="0" t="s"/>
+      <x:c r="C34" s="0" t="s"/>
+      <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s"/>
       <x:c r="F34" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
@@ -1391,17 +1461,15 @@
       <x:c r="B35" s="0" t="s"/>
       <x:c r="C35" s="0" t="s"/>
       <x:c r="D35" s="0" t="s"/>
-      <x:c r="E35" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="E35" s="0" t="s"/>
       <x:c r="F35" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s"/>
       <x:c r="J35" s="0" t="s"/>
@@ -1412,17 +1480,15 @@
       <x:c r="B36" s="0" t="s"/>
       <x:c r="C36" s="0" t="s"/>
       <x:c r="D36" s="0" t="s"/>
-      <x:c r="E36" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="E36" s="0" t="s"/>
       <x:c r="F36" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
@@ -1433,17 +1499,15 @@
       <x:c r="B37" s="0" t="s"/>
       <x:c r="C37" s="0" t="s"/>
       <x:c r="D37" s="0" t="s"/>
-      <x:c r="E37" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="E37" s="0" t="s"/>
       <x:c r="F37" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
@@ -1454,17 +1518,15 @@
       <x:c r="B38" s="0" t="s"/>
       <x:c r="C38" s="0" t="s"/>
       <x:c r="D38" s="0" t="s"/>
-      <x:c r="E38" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
+      <x:c r="E38" s="0" t="s"/>
       <x:c r="F38" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
@@ -1477,32 +1539,40 @@
       <x:c r="D39" s="0" t="s"/>
       <x:c r="E39" s="0" t="s"/>
       <x:c r="F39" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
       <x:c r="K39" s="0" t="s"/>
     </x:row>
     <x:row r="40" spans="1:11">
-      <x:c r="A40" s="0" t="s"/>
-      <x:c r="B40" s="0" t="s"/>
-      <x:c r="C40" s="0" t="s"/>
-      <x:c r="D40" s="0" t="s"/>
+      <x:c r="A40" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="E40" s="0" t="s"/>
       <x:c r="F40" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
@@ -1515,82 +1585,36 @@
       <x:c r="D41" s="0" t="s"/>
       <x:c r="E41" s="0" t="s"/>
       <x:c r="F41" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s"/>
       <x:c r="J41" s="0" t="s"/>
       <x:c r="K41" s="0" t="s"/>
     </x:row>
     <x:row r="42" spans="1:11">
-      <x:c r="A42" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C42" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="A42" s="0" t="s"/>
+      <x:c r="B42" s="0" t="s"/>
+      <x:c r="C42" s="0" t="s"/>
+      <x:c r="D42" s="0" t="s"/>
       <x:c r="E42" s="0" t="s"/>
       <x:c r="F42" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
       <x:c r="K42" s="0" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:11">
-      <x:c r="A43" s="0" t="s"/>
-      <x:c r="B43" s="0" t="s"/>
-      <x:c r="C43" s="0" t="s"/>
-      <x:c r="D43" s="0" t="s"/>
-      <x:c r="E43" s="0" t="s"/>
-      <x:c r="F43" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G43" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="I43" s="0" t="s"/>
-      <x:c r="J43" s="0" t="s"/>
-      <x:c r="K43" s="0" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:11">
-      <x:c r="A44" s="0" t="s"/>
-      <x:c r="B44" s="0" t="s"/>
-      <x:c r="C44" s="0" t="s"/>
-      <x:c r="D44" s="0" t="s"/>
-      <x:c r="E44" s="0" t="s"/>
-      <x:c r="F44" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G44" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H44" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I44" s="0" t="s"/>
-      <x:c r="J44" s="0" t="s"/>
-      <x:c r="K44" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
